--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26950" windowHeight="13160"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -58,25 +58,19 @@
     <t>UnlockEquip</t>
   </si>
   <si>
-    <t>1|20;2|20</t>
-  </si>
-  <si>
-    <t>Equip1</t>
-  </si>
-  <si>
-    <t>Equip2</t>
-  </si>
-  <si>
-    <t>Equip3</t>
-  </si>
-  <si>
-    <t>Equip4</t>
-  </si>
-  <si>
-    <t>Equip5</t>
-  </si>
-  <si>
-    <t>Equip6</t>
+    <t>1001|20;1002|20</t>
+  </si>
+  <si>
+    <t>Arm|101</t>
+  </si>
+  <si>
+    <t>Armor|101</t>
+  </si>
+  <si>
+    <t>Arm|102</t>
+  </si>
+  <si>
+    <t>Armor|102</t>
   </si>
 </sst>
 </file>
@@ -85,8 +79,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -106,12 +100,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -119,47 +166,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,84 +242,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -264,79 +258,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,103 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,31 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,22 +516,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,16 +535,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,25 +1066,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.1272727272727" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,40 +1218,6 @@
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2">
-        <v>500</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>500</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -99,22 +99,54 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -123,89 +155,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,14 +169,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,11 +229,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -258,151 +258,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,31 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,17 +467,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,26 +497,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,8 +539,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,8 +548,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -58,19 +58,40 @@
     <t>UnlockEquip</t>
   </si>
   <si>
-    <t>1001|20;1002|20</t>
+    <t>1003|20;1002|300</t>
   </si>
   <si>
     <t>Arm|101</t>
   </si>
   <si>
+    <t>1003|150;1002|1200</t>
+  </si>
+  <si>
     <t>Armor|101</t>
   </si>
   <si>
+    <t>1003|600;1002|3500</t>
+  </si>
+  <si>
     <t>Arm|102</t>
   </si>
   <si>
+    <t>1003|2500;1002|10000</t>
+  </si>
+  <si>
     <t>Armor|102</t>
+  </si>
+  <si>
+    <t>1003|7500;1004|3000</t>
+  </si>
+  <si>
+    <t>Arm|103</t>
+  </si>
+  <si>
+    <t>1003|50000;1004|20000</t>
+  </si>
+  <si>
+    <t>Armor|103</t>
   </si>
 </sst>
 </file>
@@ -78,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,17 +120,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,23 +188,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,14 +220,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,22 +233,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,30 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,21 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,187 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,17 +488,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,15 +512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -517,6 +523,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,45 +585,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,21 +1087,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1163,7 +1184,7 @@
         <v>500</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -1174,16 +1195,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>500</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1191,16 +1212,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
         <v>500</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1208,16 +1229,50 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>500</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>500</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,22 +121,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,6 +157,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -158,23 +204,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,82 +263,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -279,19 +279,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,163 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,21 +498,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -538,20 +523,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,17 +568,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,14 +1092,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -1198,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1215,7 +1215,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -1232,7 +1232,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>500</v>
+        <v>48000</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>95000</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
@@ -1266,7 +1266,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>500</v>
+        <v>210000</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -58,25 +58,25 @@
     <t>UnlockEquip</t>
   </si>
   <si>
-    <t>1003|20;1002|300</t>
+    <t>1003|10;1002|200</t>
   </si>
   <si>
     <t>Arm|101</t>
   </si>
   <si>
-    <t>1003|150;1002|1200</t>
+    <t>1003|80;1002|800</t>
   </si>
   <si>
     <t>Armor|101</t>
   </si>
   <si>
-    <t>1003|600;1002|3500</t>
+    <t>1003|400;1002|3000</t>
   </si>
   <si>
     <t>Arm|102</t>
   </si>
   <si>
-    <t>1003|2500;1002|10000</t>
+    <t>1003|1500;1002|8000</t>
   </si>
   <si>
     <t>Armor|102</t>
@@ -88,7 +88,7 @@
     <t>Arm|103</t>
   </si>
   <si>
-    <t>1003|50000;1004|20000</t>
+    <t>1003|35000;1004|20000</t>
   </si>
   <si>
     <t>Armor|103</t>
@@ -99,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -120,30 +120,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,8 +136,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -166,15 +195,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,39 +211,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,34 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -263,6 +232,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -279,138 +279,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,48 +460,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +498,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -523,6 +547,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,21 +567,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,34 +585,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1092,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1101,7 +1101,7 @@
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -1198,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1215,7 +1215,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -1232,7 +1232,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2">
-        <v>48000</v>
+        <v>35000</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="30300" windowHeight="11540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>ID</t>
   </si>
@@ -61,37 +61,19 @@
     <t>1003|10;1002|200</t>
   </si>
   <si>
-    <t>Arm|101</t>
-  </si>
-  <si>
     <t>1003|80;1002|800</t>
   </si>
   <si>
-    <t>Armor|101</t>
-  </si>
-  <si>
     <t>1003|400;1002|3000</t>
   </si>
   <si>
-    <t>Arm|102</t>
-  </si>
-  <si>
     <t>1003|1500;1002|8000</t>
   </si>
   <si>
-    <t>Armor|102</t>
-  </si>
-  <si>
     <t>1003|7500;1004|3000</t>
   </si>
   <si>
-    <t>Arm|103</t>
-  </si>
-  <si>
     <t>1003|35000;1004|20000</t>
-  </si>
-  <si>
-    <t>Armor|103</t>
   </si>
 </sst>
 </file>
@@ -99,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -120,9 +102,107 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,12 +217,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -151,106 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,19 +267,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,43 +357,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,109 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,15 +470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -512,11 +485,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +517,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -551,22 +548,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,12 +1074,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
@@ -1105,7 +1087,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1156,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1168,8 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
+      <c r="E5" s="2">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1195,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>4000</v>
@@ -1203,8 +1185,8 @@
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
+      <c r="E6" s="2">
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1212,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>12000</v>
@@ -1220,8 +1202,8 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
+      <c r="E7" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1229,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>35000</v>
@@ -1237,8 +1219,8 @@
       <c r="D8" s="2">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
+      <c r="E8" s="2">
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1246,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>95000</v>
@@ -1254,8 +1236,8 @@
       <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
+      <c r="E9" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1263,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>210000</v>
@@ -1271,8 +1253,8 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
+      <c r="E10" s="2">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30300" windowHeight="11540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -58,22 +58,25 @@
     <t>UnlockEquip</t>
   </si>
   <si>
-    <t>1003|10;1002|200</t>
-  </si>
-  <si>
-    <t>1003|80;1002|800</t>
-  </si>
-  <si>
-    <t>1003|400;1002|3000</t>
-  </si>
-  <si>
-    <t>1003|1500;1002|8000</t>
-  </si>
-  <si>
-    <t>1003|7500;1004|3000</t>
-  </si>
-  <si>
-    <t>1003|35000;1004|20000</t>
+    <t>1003|10;1002|120</t>
+  </si>
+  <si>
+    <t>主石</t>
+  </si>
+  <si>
+    <t>1003|80;1002|400</t>
+  </si>
+  <si>
+    <t>1003|240;1002|1200</t>
+  </si>
+  <si>
+    <t>1003|800;1002|4000</t>
+  </si>
+  <si>
+    <t>1003|3600;1004|1800</t>
+  </si>
+  <si>
+    <t>1003|16000;1004|8000</t>
   </si>
 </sst>
 </file>
@@ -82,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,83 +105,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +128,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -200,19 +204,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,24 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,25 +264,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,42 +414,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,55 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,49 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,16 +474,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,45 +504,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,16 +541,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,137 +588,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,6 +726,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1069,25 +1076,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:5">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1171,13 +1178,25 @@
       <c r="E5" s="2">
         <v>101</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>240</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>4000</v>
@@ -1188,13 +1207,22 @@
       <c r="E6" s="2">
         <v>501</v>
       </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>800</v>
+      </c>
+      <c r="J6" s="2">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>12000</v>
@@ -1205,13 +1233,22 @@
       <c r="E7" s="2">
         <v>102</v>
       </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J7" s="2">
+        <v>240</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>35000</v>
@@ -1222,13 +1259,22 @@
       <c r="E8" s="2">
         <v>502</v>
       </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J8" s="2">
+        <v>800</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>95000</v>
@@ -1239,13 +1285,20 @@
       <c r="E9" s="2">
         <v>103</v>
       </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="2">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>210000</v>
@@ -1256,11 +1309,15 @@
       <c r="E10" s="2">
         <v>503</v>
       </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2">
+        <v>16000</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
-    <sortCondition ref="A5"/>
-  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -58,25 +58,25 @@
     <t>UnlockEquip</t>
   </si>
   <si>
-    <t>1003|10;1002|120</t>
+    <t>1003|50;1002|120</t>
   </si>
   <si>
     <t>主石</t>
   </si>
   <si>
-    <t>1003|80;1002|400</t>
-  </si>
-  <si>
-    <t>1003|240;1002|1200</t>
-  </si>
-  <si>
-    <t>1003|800;1002|4000</t>
-  </si>
-  <si>
-    <t>1003|3600;1004|1800</t>
-  </si>
-  <si>
-    <t>1003|16000;1004|8000</t>
+    <t>1003|160;1002|400</t>
+  </si>
+  <si>
+    <t>1003|500;1002|1200</t>
+  </si>
+  <si>
+    <t>1003|1600;1002|4000</t>
+  </si>
+  <si>
+    <t>1003|7500;1004|3500</t>
+  </si>
+  <si>
+    <t>1003|32000;1004|16000</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,6 +122,58 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,61 +187,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,54 +241,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,55 +264,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,127 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +474,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -488,17 +512,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,15 +532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,16 +555,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1081,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1188,7 +1188,7 @@
         <v>240</v>
       </c>
       <c r="J5" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1214,7 +1214,7 @@
         <v>800</v>
       </c>
       <c r="J6" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1240,7 +1240,7 @@
         <v>2400</v>
       </c>
       <c r="J7" s="2">
-        <v>240</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1266,7 +1266,7 @@
         <v>8000</v>
       </c>
       <c r="J8" s="2">
-        <v>800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="2">
-        <v>3600</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="2">
-        <v>16000</v>
+        <v>32000</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -70,13 +70,13 @@
     <t>1003|500;1002|1200</t>
   </si>
   <si>
-    <t>1003|1600;1002|4000</t>
+    <t>1003|1600;1002|2500</t>
   </si>
   <si>
     <t>1003|7500;1004|3500</t>
   </si>
   <si>
-    <t>1003|32000;1004|16000</t>
+    <t>1003|20000;1004|16000</t>
   </si>
 </sst>
 </file>
@@ -105,77 +105,42 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,30 +153,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,25 +212,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,121 +264,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,49 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,26 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,8 +500,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,26 +536,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1081,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,32 +105,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +164,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -152,58 +194,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -212,15 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +212,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,7 +227,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,7 +243,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,13 +264,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,13 +402,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,145 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,15 +469,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,17 +497,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,9 +532,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,13 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1081,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1231,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -1257,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="2">
-        <v>502</v>
+        <v>601</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
@@ -1283,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="2">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="H9" s="2">
         <v>5</v>
@@ -1307,7 +1307,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>503</v>
+        <v>701</v>
       </c>
       <c r="H10" s="2">
         <v>6</v>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -58,25 +58,25 @@
     <t>UnlockEquip</t>
   </si>
   <si>
-    <t>1003|50;1002|120</t>
+    <t>1003|100;1002|280</t>
   </si>
   <si>
     <t>主石</t>
   </si>
   <si>
-    <t>1003|160;1002|400</t>
-  </si>
-  <si>
-    <t>1003|500;1002|1200</t>
-  </si>
-  <si>
-    <t>1003|1600;1002|2500</t>
-  </si>
-  <si>
-    <t>1003|7500;1004|3500</t>
-  </si>
-  <si>
-    <t>1003|20000;1004|16000</t>
+    <t>1003|300;1002|650</t>
+  </si>
+  <si>
+    <t>1003|800;1002|1300</t>
+  </si>
+  <si>
+    <t>1003|1400;1002|2000</t>
+  </si>
+  <si>
+    <t>1003|2200;1004|1500</t>
+  </si>
+  <si>
+    <t>1003|3000;1004|2000</t>
   </si>
 </sst>
 </file>
@@ -84,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,7 +113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,38 +121,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,23 +135,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,48 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,13 +264,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,96 +426,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,67 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +473,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -491,26 +509,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,21 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,12 +1076,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1170,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
@@ -1185,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="J5" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1199,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="D6" s="2">
         <v>4</v>
@@ -1211,10 +1211,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="J6" s="2">
-        <v>160</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1225,7 +1225,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>12000</v>
+        <v>3200</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -1237,10 +1237,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J7" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1251,7 +1251,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>35000</v>
+        <v>4500</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -1263,10 +1263,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="3">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="J8" s="2">
-        <v>1600</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1277,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>95000</v>
+        <v>7600</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="2">
-        <v>7500</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1301,7 +1301,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>210000</v>
+        <v>12000</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
@@ -1314,8 +1314,98 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="2">
-        <v>32000</v>
-      </c>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="10:10">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="9:11">
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24" s="3"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="3"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="9:11">
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="10:11">
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="10:11">
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="9:11">
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="10:11">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="10:11">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="9:11">
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="11:11">
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="9:11">
+      <c r="I36" s="4"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="11:11">
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="11:11">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="11:11">
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="9:11">
+      <c r="I40" s="4"/>
+      <c r="K40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -58,25 +58,22 @@
     <t>UnlockEquip</t>
   </si>
   <si>
-    <t>1003|100;1002|280</t>
-  </si>
-  <si>
-    <t>主石</t>
-  </si>
-  <si>
-    <t>1003|300;1002|650</t>
-  </si>
-  <si>
-    <t>1003|800;1002|1300</t>
-  </si>
-  <si>
-    <t>1003|1400;1002|2000</t>
-  </si>
-  <si>
-    <t>1003|2200;1004|1500</t>
-  </si>
-  <si>
-    <t>1003|3000;1004|2000</t>
+    <t>1001|100;1004|100</t>
+  </si>
+  <si>
+    <t>1001|300;1004|300</t>
+  </si>
+  <si>
+    <t>1001|800;1004|600</t>
+  </si>
+  <si>
+    <t>1001|1680;1004|1400</t>
+  </si>
+  <si>
+    <t>1003|600;1004|2000</t>
+  </si>
+  <si>
+    <t>1003|1120;1004|2800</t>
   </si>
 </sst>
 </file>
@@ -84,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -119,8 +116,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -135,91 +191,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,17 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +261,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -276,175 +411,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,20 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,8 +503,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,196 +567,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -726,10 +723,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1076,15 +1069,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="2" customWidth="1"/>
@@ -1162,7 +1155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1178,25 +1171,13 @@
       <c r="E5" s="2">
         <v>101</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>550</v>
-      </c>
-      <c r="J5" s="2">
-        <v>100</v>
-      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>2200</v>
@@ -1207,22 +1188,13 @@
       <c r="E6" s="2">
         <v>501</v>
       </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J6" s="2">
-        <v>300</v>
-      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>3200</v>
@@ -1233,22 +1205,13 @@
       <c r="E7" s="2">
         <v>201</v>
       </c>
-      <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J7" s="2">
-        <v>800</v>
-      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>4500</v>
@@ -1259,22 +1222,13 @@
       <c r="E8" s="2">
         <v>601</v>
       </c>
-      <c r="H8" s="2">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1400</v>
-      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>7600</v>
@@ -1285,20 +1239,13 @@
       <c r="E9" s="2">
         <v>301</v>
       </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2">
-        <v>2200</v>
-      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>12000</v>
@@ -1309,103 +1256,6 @@
       <c r="E10" s="2">
         <v>701</v>
       </c>
-      <c r="H10" s="2">
-        <v>6</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="10:10">
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="10:10">
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="10:10">
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="10:10">
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="9:11">
-      <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="3"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="3"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="9:11">
-      <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="10:11">
-      <c r="J27" s="3"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="10:11">
-      <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="9:11">
-      <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="10:11">
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="10:11">
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="9:11">
-      <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="11:11">
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="9:11">
-      <c r="I36" s="4"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="11:11">
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="11:11">
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="11:11">
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="9:11">
-      <c r="I40" s="4"/>
-      <c r="K40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -81,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -103,6 +103,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -110,51 +139,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,14 +202,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,16 +216,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,17 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,22 +240,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +466,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +520,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -532,51 +567,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,7 +1074,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -58,22 +58,22 @@
     <t>UnlockEquip</t>
   </si>
   <si>
-    <t>1001|100;1004|100</t>
-  </si>
-  <si>
-    <t>1001|300;1004|300</t>
-  </si>
-  <si>
-    <t>1001|800;1004|600</t>
-  </si>
-  <si>
-    <t>1001|1680;1004|1400</t>
-  </si>
-  <si>
-    <t>1003|600;1004|2000</t>
-  </si>
-  <si>
-    <t>1003|1120;1004|2800</t>
+    <t>1001|200;1004|100</t>
+  </si>
+  <si>
+    <t>1001|500;1004|300</t>
+  </si>
+  <si>
+    <t>1001|1000;1004|600</t>
+  </si>
+  <si>
+    <t>1001|2100;1004|1400</t>
+  </si>
+  <si>
+    <t>1003|2000;1004|2000</t>
+  </si>
+  <si>
+    <t>1003|2800;1004|2800</t>
   </si>
 </sst>
 </file>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,8 +102,93 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,58 +202,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -184,9 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,46 +233,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,55 +261,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,127 +405,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,21 +475,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,11 +529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,16 +558,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,7 +1074,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityForgeHouse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,22 +58,22 @@
     <t>UnlockEquip</t>
   </si>
   <si>
-    <t>1001|200;1004|100</t>
-  </si>
-  <si>
-    <t>1001|500;1004|300</t>
+    <t>1001|150;1004|50</t>
+  </si>
+  <si>
+    <t>1001|250;1004|120</t>
+  </si>
+  <si>
+    <t>1001|400;1004|250</t>
   </si>
   <si>
     <t>1001|1000;1004|600</t>
   </si>
   <si>
-    <t>1001|2100;1004|1400</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|2000</t>
-  </si>
-  <si>
-    <t>1003|2800;1004|2800</t>
+    <t>1003|1200;1004|1200</t>
+  </si>
+  <si>
+    <t>1003|2500;1004|2500</t>
   </si>
 </sst>
 </file>
@@ -82,8 +82,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -102,6 +102,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -111,14 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,73 +208,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,37 +230,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +479,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -490,26 +516,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +535,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -540,21 +555,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
